--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -22,13 +22,13 @@
     <t>Şifre</t>
   </si>
   <si>
-    <t>customer.oguzhan@gmail.com</t>
+    <t>customer.hamza@gmail.com</t>
   </si>
   <si>
     <t>Bsc.0425</t>
   </si>
   <si>
-    <t>admin.oguzhan@buysellcycle.com</t>
+    <t>admin.hamza@buysellcycle.com</t>
   </si>
   <si>
     <t>gecersiz@gmail.com</t>
